--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -46,7 +46,24 @@
     <t xml:space="preserve">special</t>
   </si>
   <si>
-    <t xml:space="preserve">アイテム１</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">アイテム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
   </si>
   <si>
     <r>
@@ -189,9 +206,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -252,7 +266,24 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">hoge</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">アイテム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">12</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -262,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
@@ -286,6 +317,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -475,7 +512,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -484,13 +521,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -504,26 +541,26 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -613,8 +650,8 @@
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
+      <c r="C10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>2</v>
@@ -625,7 +662,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>60</v>
@@ -639,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>70</v>
@@ -653,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>80</v>
@@ -667,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>10</v>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -521,13 +521,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -546,21 +546,21 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -645,7 +645,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -693,10 +693,10 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -509,10 +509,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -693,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>1</v>
@@ -711,6 +711,17 @@
       </c>
       <c r="D14" s="2" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -373,7 +373,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -383,6 +383,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,7 +516,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -714,15 +718,9 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
